--- a/Reportes/Reporte_Data_40_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
+++ b/Reportes/Reporte_Data_40_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
@@ -30,262 +30,262 @@
     <t>Data_40_Salidas_composición_zonas_homogéneas.xlsx</t>
   </si>
   <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>358,4</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Pedido_1</t>
+  </si>
+  <si>
+    <t>Pedido_2</t>
+  </si>
+  <si>
+    <t>Pedido_3</t>
+  </si>
+  <si>
+    <t>Pedido_4</t>
+  </si>
+  <si>
+    <t>Pedido_5</t>
+  </si>
+  <si>
+    <t>Pedido_6</t>
+  </si>
+  <si>
+    <t>Pedido_7</t>
+  </si>
+  <si>
+    <t>Pedido_8</t>
+  </si>
+  <si>
+    <t>Pedido_9</t>
+  </si>
+  <si>
+    <t>Pedido_10</t>
+  </si>
+  <si>
+    <t>Pedido_11</t>
+  </si>
+  <si>
+    <t>Pedido_12</t>
+  </si>
+  <si>
+    <t>Pedido_13</t>
+  </si>
+  <si>
+    <t>Pedido_14</t>
+  </si>
+  <si>
+    <t>Pedido_15</t>
+  </si>
+  <si>
+    <t>Pedido_16</t>
+  </si>
+  <si>
+    <t>Pedido_17</t>
+  </si>
+  <si>
+    <t>Pedido_18</t>
+  </si>
+  <si>
+    <t>Pedido_19</t>
+  </si>
+  <si>
+    <t>Pedido_20</t>
+  </si>
+  <si>
+    <t>Pedido_21</t>
+  </si>
+  <si>
+    <t>Pedido_22</t>
+  </si>
+  <si>
+    <t>Pedido_23</t>
+  </si>
+  <si>
+    <t>Pedido_24</t>
+  </si>
+  <si>
+    <t>Pedido_25</t>
+  </si>
+  <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
+    <t>Pedido_27</t>
+  </si>
+  <si>
+    <t>Pedido_28</t>
+  </si>
+  <si>
+    <t>Pedido_29</t>
+  </si>
+  <si>
+    <t>Pedido_30</t>
+  </si>
+  <si>
+    <t>Pedido_31</t>
+  </si>
+  <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
+    <t>Pedido_33</t>
+  </si>
+  <si>
+    <t>Pedido_34</t>
+  </si>
+  <si>
+    <t>Pedido_35</t>
+  </si>
+  <si>
+    <t>Pedido_36</t>
+  </si>
+  <si>
+    <t>Pedido_37</t>
+  </si>
+  <si>
+    <t>Pedido_38</t>
+  </si>
+  <si>
+    <t>Pedido_39</t>
+  </si>
+  <si>
+    <t>Pedido_40</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
     <t>Z1</t>
-  </si>
-  <si>
-    <t>358,4</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Pedido_1</t>
-  </si>
-  <si>
-    <t>Pedido_2</t>
-  </si>
-  <si>
-    <t>Pedido_3</t>
-  </si>
-  <si>
-    <t>Pedido_4</t>
-  </si>
-  <si>
-    <t>Pedido_5</t>
-  </si>
-  <si>
-    <t>Pedido_6</t>
-  </si>
-  <si>
-    <t>Pedido_7</t>
-  </si>
-  <si>
-    <t>Pedido_8</t>
-  </si>
-  <si>
-    <t>Pedido_9</t>
-  </si>
-  <si>
-    <t>Pedido_10</t>
-  </si>
-  <si>
-    <t>Pedido_11</t>
-  </si>
-  <si>
-    <t>Pedido_12</t>
-  </si>
-  <si>
-    <t>Pedido_13</t>
-  </si>
-  <si>
-    <t>Pedido_14</t>
-  </si>
-  <si>
-    <t>Pedido_15</t>
-  </si>
-  <si>
-    <t>Pedido_16</t>
-  </si>
-  <si>
-    <t>Pedido_17</t>
-  </si>
-  <si>
-    <t>Pedido_18</t>
-  </si>
-  <si>
-    <t>Pedido_19</t>
-  </si>
-  <si>
-    <t>Pedido_20</t>
-  </si>
-  <si>
-    <t>Pedido_21</t>
-  </si>
-  <si>
-    <t>Pedido_22</t>
-  </si>
-  <si>
-    <t>Pedido_23</t>
-  </si>
-  <si>
-    <t>Pedido_24</t>
-  </si>
-  <si>
-    <t>Pedido_25</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_27</t>
-  </si>
-  <si>
-    <t>Pedido_28</t>
-  </si>
-  <si>
-    <t>Pedido_29</t>
-  </si>
-  <si>
-    <t>Pedido_30</t>
-  </si>
-  <si>
-    <t>Pedido_31</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_33</t>
-  </si>
-  <si>
-    <t>Pedido_34</t>
-  </si>
-  <si>
-    <t>Pedido_35</t>
-  </si>
-  <si>
-    <t>Pedido_36</t>
-  </si>
-  <si>
-    <t>Pedido_37</t>
-  </si>
-  <si>
-    <t>Pedido_38</t>
-  </si>
-  <si>
-    <t>Pedido_39</t>
-  </si>
-  <si>
-    <t>Pedido_40</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Z2</t>
   </si>
   <si>
     <t>358,3</t>
@@ -1047,18 +1047,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes/Reporte_Data_40_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
+++ b/Reportes/Reporte_Data_40_Salidas_composición_zonas_homogéneas.xlsx_simulated_annealing.xlsx
@@ -162,124 +162,124 @@
     <t>Pedido_40</t>
   </si>
   <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
     <t>S031</t>
   </si>
   <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S033</t>
-  </si>
-  <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S018</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S036</t>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S008</t>
   </si>
   <si>
     <t>S032</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S019</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S029</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S024</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S008</t>
-  </si>
-  <si>
-    <t>S006</t>
   </si>
   <si>
     <t>Tiempo</t>
